--- a/biology/Médecine/Musée_du_Service_de_santé_des_armées/Musée_du_Service_de_santé_des_armées.xlsx
+++ b/biology/Médecine/Musée_du_Service_de_santé_des_armées/Musée_du_Service_de_santé_des_armées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_du_Service_de_sant%C3%A9_des_arm%C3%A9es</t>
+          <t>Musée_du_Service_de_santé_des_armées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le musée du Service de santé des armées est fondé en 1916 au Val-de-Grâce. Il est situé 1, place Alphonse-Laveran[1] dans le 5e arrondissement de Paris. Cependant, les archives attestent l'existence d'un cabinet d'histoire naturelle, regroupant divers objets, mis à la disposition des élèves. Mais il faudra attendre la circulaire du 5 mai 1916 pour que soit mis en place un tel organe. Le musée est ouvert au public depuis 1986.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le musée du Service de santé des armées est fondé en 1916 au Val-de-Grâce. Il est situé 1, place Alphonse-Laveran dans le 5e arrondissement de Paris. Cependant, les archives attestent l'existence d'un cabinet d'histoire naturelle, regroupant divers objets, mis à la disposition des élèves. Mais il faudra attendre la circulaire du 5 mai 1916 pour que soit mis en place un tel organe. Le musée est ouvert au public depuis 1986.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_du_Service_de_sant%C3%A9_des_arm%C3%A9es</t>
+          <t>Musée_du_Service_de_santé_des_armées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fondation du musée remonte à la création de l'École d'application du Service de santé militaire au Val-de-Grâce en 1850[2].
-Ses collections traitent de la création et des missions du service de santé des armées, les uniformes, l'hygiène et la prévention[3]. On peut y voir le portrait du médecin militaire René Nicolas Dufriche, baron Desgenettes, réalisé en 1828 par le peintre Horace Vernet[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fondation du musée remonte à la création de l'École d'application du Service de santé militaire au Val-de-Grâce en 1850.
+Ses collections traitent de la création et des missions du service de santé des armées, les uniformes, l'hygiène et la prévention. On peut y voir le portrait du médecin militaire René Nicolas Dufriche, baron Desgenettes, réalisé en 1828 par le peintre Horace Vernet.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_du_Service_de_sant%C3%A9_des_arm%C3%A9es</t>
+          <t>Musée_du_Service_de_santé_des_armées</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Expositions temporaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2010-2011 : L'Ambulance 13 stationne au Val-de-Grâce, conjointement à la sortie en librairie de la bande dessinée L'Ambulance 13, Ed. Bamboo[5]
-2010-2011 : Verdun, vestiges de guerre blessures de la terre, exposition de photos à l'occasion du 92e anniversaire de l'Armistice de 1918 et du 90e anniversaire de l'inhumation du Soldat inconnu à l'Arc de Triomphe[6].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2010-2011 : L'Ambulance 13 stationne au Val-de-Grâce, conjointement à la sortie en librairie de la bande dessinée L'Ambulance 13, Ed. Bamboo
+2010-2011 : Verdun, vestiges de guerre blessures de la terre, exposition de photos à l'occasion du 92e anniversaire de l'Armistice de 1918 et du 90e anniversaire de l'inhumation du Soldat inconnu à l'Arc de Triomphe.</t>
         </is>
       </c>
     </row>
